--- a/Automation_Apps_Codes/_Test_Codes/data.xlsx
+++ b/Automation_Apps_Codes/_Test_Codes/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="264">
   <si>
     <t>Sample Info</t>
   </si>
@@ -125,19 +125,22 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Auto</t>
+    <t>Rear</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
     <t>9.3.2025</t>
   </si>
   <si>
-    <t>17:26:6</t>
+    <t>18:47:10</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -254,19 +257,22 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Auto</t>
+    <t>Rear</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
     <t>9.3.2025</t>
   </si>
   <si>
-    <t>17:26:6</t>
+    <t>18:47:10</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -383,19 +389,22 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Auto</t>
+    <t>Rear</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
     <t>9.3.2025</t>
   </si>
   <si>
-    <t>17:26:6</t>
+    <t>18:47:10</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -512,19 +521,22 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Auto</t>
+    <t>Rear</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
     <t>9.3.2025</t>
   </si>
   <si>
-    <t>17:26:6</t>
+    <t>18:47:10</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -641,19 +653,154 @@
     <t>Off</t>
   </si>
   <si>
-    <t>Auto</t>
+    <t>Rear</t>
   </si>
   <si>
     <t>Normal</t>
   </si>
   <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
     <t>9.3.2025</t>
   </si>
   <si>
-    <t>17:26:6</t>
+    <t>18:47:10</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>9.3.2025</t>
+  </si>
+  <si>
+    <t>18:47:10</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -714,31 +861,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>172</v>
+        <v>220</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>201</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>202</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="B4" s="0">
         <v>0</v>
@@ -746,7 +893,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="B5" s="0">
         <v>5</v>
@@ -754,15 +901,15 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="B7" s="0">
         <v>0.10000000000000001</v>
@@ -770,69 +917,69 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>206</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>209</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>210</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="B15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="B16" s="0">
         <v>5</v>
@@ -840,15 +987,15 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>210</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="B18" s="0">
         <v>1</v>
@@ -856,7 +1003,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="B19" s="0">
         <v>1</v>
@@ -864,13 +1011,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>191</v>
+        <v>239</v>
       </c>
       <c r="B20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>192</v>
+        <v>240</v>
       </c>
       <c r="B21" s="0">
         <v>1</v>
@@ -878,7 +1025,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="B22" s="0">
         <v>50</v>
@@ -886,7 +1033,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="B23" s="0">
         <v>0.02</v>
@@ -894,7 +1041,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B24" s="0">
         <v>1.25</v>
@@ -902,32 +1049,32 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>196</v>
+        <v>244</v>
       </c>
       <c r="B25" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>197</v>
+        <v>245</v>
       </c>
       <c r="B26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>198</v>
+        <v>246</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>212</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -936,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="true"/>
@@ -945,42 +1092,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>214</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3.1200215744000002e-06</v>
+        <v>3.3328869903999998e-06</v>
       </c>
       <c r="B2" s="0">
-        <v>-2.1249829674e-10</v>
+        <v>-2.1690144125000001e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1.0377759281199999e-05</v>
+        <v>1.12281140902e-05</v>
       </c>
       <c r="B3" s="0">
-        <v>-2.1277789253000001e-10</v>
+        <v>-2.1685780254500002e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>4.0579773364133332e-05</v>
+        <v>4.3454658833466665e-05</v>
       </c>
       <c r="B4" s="0">
-        <v>-2.1279143262333335e-10</v>
+        <v>-2.1675587250666669e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>5.5103796966849994e-05</v>
+        <v>6.1010404352600001e-05</v>
       </c>
       <c r="B5" s="0">
-        <v>-2.1283023954500001e-10</v>
+        <v>-2.166452225925e-10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>7.0159065218080004e-05</v>
+      </c>
+      <c r="B6" s="0">
+        <v>-2.1647862669e-10</v>
       </c>
     </row>
   </sheetData>

--- a/Automation_Apps_Codes/_Test_Codes/data.xlsx
+++ b/Automation_Apps_Codes/_Test_Codes/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1848">
   <si>
     <t>Sample Info</t>
   </si>
@@ -113,9 +113,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -137,10 +269,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -245,9 +377,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -269,10 +533,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -377,9 +641,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -401,10 +797,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -509,9 +905,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -533,10 +1061,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -641,9 +1169,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -665,10 +1325,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -773,9 +1433,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -797,10 +1589,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -905,9 +1697,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -929,10 +1853,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1037,9 +1961,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -1061,10 +2117,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1169,9 +2225,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -1193,10 +2381,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1301,9 +2489,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -1325,10 +2645,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1433,9 +2753,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -1457,10 +2909,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1565,9 +3017,141 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
     <t>Off</t>
   </si>
   <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
     <t>Auto</t>
   </si>
   <si>
@@ -1589,10 +3173,2386 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>19.3.2025</t>
-  </si>
-  <si>
-    <t>21:13:27</t>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>2.4.2025</t>
+  </si>
+  <si>
+    <t>20:8:7</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1653,55 +5613,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>484</v>
+        <v>1804</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>512</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>485</v>
+        <v>1805</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>513</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>486</v>
+        <v>1806</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>514</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>487</v>
+        <v>1807</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>488</v>
+        <v>1808</v>
       </c>
       <c r="B5" s="0">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>489</v>
+        <v>1809</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>515</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>490</v>
+        <v>1810</v>
       </c>
       <c r="B7" s="0">
         <v>0.10000000000000001</v>
@@ -1709,85 +5669,85 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>491</v>
+        <v>1811</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>516</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>492</v>
+        <v>1812</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>517</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>493</v>
+        <v>1813</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>518</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>494</v>
+        <v>1814</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>519</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>495</v>
+        <v>1815</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>520</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>496</v>
+        <v>1816</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>521</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>497</v>
+        <v>1817</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>522</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>498</v>
+        <v>1818</v>
       </c>
       <c r="B15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>499</v>
+        <v>1819</v>
       </c>
       <c r="B16" s="0">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>500</v>
+        <v>1820</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>523</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>501</v>
+        <v>1821</v>
       </c>
       <c r="B18" s="0">
         <v>0</v>
@@ -1795,7 +5755,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>502</v>
+        <v>1822</v>
       </c>
       <c r="B19" s="0">
         <v>0.10000000000000001</v>
@@ -1803,13 +5763,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>503</v>
+        <v>1823</v>
       </c>
       <c r="B20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>504</v>
+        <v>1824</v>
       </c>
       <c r="B21" s="0">
         <v>1</v>
@@ -1817,7 +5777,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>505</v>
+        <v>1825</v>
       </c>
       <c r="B22" s="0">
         <v>50</v>
@@ -1825,7 +5785,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>506</v>
+        <v>1826</v>
       </c>
       <c r="B23" s="0">
         <v>0.02</v>
@@ -1833,7 +5793,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>507</v>
+        <v>1827</v>
       </c>
       <c r="B24" s="0">
         <v>0.10000000000000001</v>
@@ -1841,32 +5801,32 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>508</v>
+        <v>1828</v>
       </c>
       <c r="B25" s="0">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>509</v>
+        <v>1829</v>
       </c>
       <c r="B26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>510</v>
+        <v>1830</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>524</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>511</v>
+        <v>1831</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>525</v>
+        <v>1845</v>
       </c>
     </row>
   </sheetData>
@@ -1875,107 +5835,347 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B42"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="true"/>
+    <col min="1" max="1" width="16.28515625" customWidth="true"/>
     <col min="2" max="2" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>526</v>
+        <v>1846</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>527</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.49998769164000001</v>
+        <v>-0.99999547005</v>
       </c>
       <c r="B2" s="0">
-        <v>-2.4614549288e-10</v>
+        <v>-2.6587043677999999e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.40000090003</v>
+        <v>-0.89998817444000001</v>
       </c>
       <c r="B3" s="0">
-        <v>-2.4314011915000003e-10</v>
+        <v>-2.6457169788000001e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.29998376966000001</v>
+        <v>-0.79999941587000001</v>
       </c>
       <c r="B4" s="0">
-        <v>-2.4046661884e-10</v>
+        <v>-2.6336602343e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.19998352229999999</v>
+        <v>-0.69998210669000005</v>
       </c>
       <c r="B5" s="0">
-        <v>-2.3874255349999999e-10</v>
+        <v>-2.6224764027e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.099994666873999993</v>
+        <v>-0.59999996424000002</v>
       </c>
       <c r="B6" s="0">
-        <v>-2.3520710378999998e-10</v>
+        <v>-2.6082069837000002e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>3.3565920603000002e-06</v>
+        <v>-0.49998447298999998</v>
       </c>
       <c r="B7" s="0">
-        <v>-2.1264362492999999e-10</v>
+        <v>-2.5864821396000002e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.10000966489</v>
+        <v>-0.40000274777</v>
       </c>
       <c r="B8" s="0">
-        <v>8.0367955346e-11</v>
+        <v>-2.5674920522999999e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.20000496507000001</v>
+        <v>-0.29998496175</v>
       </c>
       <c r="B9" s="0">
-        <v>4.1064489587e-09</v>
+        <v>-2.5499038991e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.29998150468000001</v>
+        <v>-0.19998198748000001</v>
       </c>
       <c r="B10" s="0">
-        <v>6.1263882856000003e-08</v>
+        <v>-2.5132693149e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.40001595020000003</v>
+        <v>-0.099993683397999994</v>
       </c>
       <c r="B11" s="0">
-        <v>1.3129664466999999e-06</v>
+        <v>-2.4609667082000002e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.49999085068999999</v>
+        <v>-9.5966242952000001e-08</v>
       </c>
       <c r="B12" s="0">
-        <v>3.4926215449000001e-05</v>
+        <v>-2.2231619323000001e-10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.10000852495</v>
+      </c>
+      <c r="B13" s="0">
+        <v>9.7347595263000001e-11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.20000474155</v>
+      </c>
+      <c r="B14" s="0">
+        <v>4.5012713557000004e-09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.29997989535000003</v>
+      </c>
+      <c r="B15" s="0">
+        <v>6.7502995194000007e-08</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.40001475810999998</v>
+      </c>
+      <c r="B16" s="0">
+        <v>1.4544129953999999e-06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.49998727441000002</v>
+      </c>
+      <c r="B17" s="0">
+        <v>3.8067682907999999e-05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.59999293089000005</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.00061161059420999995</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.69996827840999998</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.0057677365839000003</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.79999560118000002</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.028198413551000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.89999747275999997</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.074399329722000002</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.94249451159999997</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.099996589124000002</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.89999717473999996</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.074984706937999995</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.79999601841000001</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.028802387416000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.69996678829000003</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.0059435795993000003</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.59999144077</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.00063707609661000004</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.49998643994000003</v>
+      </c>
+      <c r="B27" s="0">
+        <v>4.0273182094e-05</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>0.40001434087999999</v>
+      </c>
+      <c r="B28" s="0">
+        <v>1.5483831248e-06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.29997828602999999</v>
+      </c>
+      <c r="B29" s="0">
+        <v>7.1347294294999994e-08</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.20000359415999999</v>
+      </c>
+      <c r="B30" s="0">
+        <v>4.7543071701999998e-09</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.10000856221</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1.1386774856e-10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>1.4052420738e-07</v>
+      </c>
+      <c r="B32" s="0">
+        <v>-2.2359175622000001e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>-0.099992893636000002</v>
+      </c>
+      <c r="B33" s="0">
+        <v>-2.4938159870000002e-10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>-0.19998341799</v>
+      </c>
+      <c r="B34" s="0">
+        <v>-2.5278293346999998e-10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>-0.29998412728000001</v>
+      </c>
+      <c r="B35" s="0">
+        <v>-2.5583493657000002e-10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>-0.40000107884000002</v>
+      </c>
+      <c r="B36" s="0">
+        <v>-2.5533991587999998e-10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>-0.49998536706000002</v>
+      </c>
+      <c r="B37" s="0">
+        <v>-2.5810650839000002e-10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>-0.60000008345</v>
+      </c>
+      <c r="B38" s="0">
+        <v>-2.6004601250000002e-10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>-0.69998055696000006</v>
+      </c>
+      <c r="B39" s="0">
+        <v>-2.6024965516000002e-10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>-0.80000054836000001</v>
+      </c>
+      <c r="B40" s="0">
+        <v>-2.6182828128000002e-10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>-0.89998382330000004</v>
+      </c>
+      <c r="B41" s="0">
+        <v>-2.6357557802999998e-10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>-0.99999582766999995</v>
+      </c>
+      <c r="B42" s="0">
+        <v>-2.6380295171e-10</v>
       </c>
     </row>
   </sheetData>

--- a/Automation_Apps_Codes/_Test_Codes/data.xlsx
+++ b/Automation_Apps_Codes/_Test_Codes/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="3652">
   <si>
     <t>Sample Info</t>
   </si>
@@ -137,10 +137,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -269,10 +269,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -401,10 +401,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -533,10 +533,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -665,10 +665,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -797,10 +797,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -929,10 +929,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1061,10 +1061,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1193,10 +1193,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1325,10 +1325,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1457,10 +1457,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1589,10 +1589,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1721,10 +1721,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1853,10 +1853,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -1985,10 +1985,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -2117,10 +2117,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -2249,10 +2249,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -2381,10 +2381,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -2513,10 +2513,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -2645,10 +2645,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -2777,10 +2777,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -2909,10 +2909,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -3041,10 +3041,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -3173,10 +3173,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -3305,10 +3305,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -3437,10 +3437,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -3569,10 +3569,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -3701,10 +3701,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -3833,10 +3833,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -3965,10 +3965,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -4097,10 +4097,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -4229,10 +4229,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -4361,10 +4361,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -4493,10 +4493,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -4625,10 +4625,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -4757,10 +4757,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -4889,10 +4889,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -5021,10 +5021,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -5153,10 +5153,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -5285,10 +5285,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -5417,10 +5417,10 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -5549,10 +5549,5422 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>2.4.2025</t>
-  </si>
-  <si>
-    <t>20:8:7</t>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Sample Info</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Measurement Parameters</t>
+  </si>
+  <si>
+    <t>Start Voltage</t>
+  </si>
+  <si>
+    <t>Stop Voltage</t>
+  </si>
+  <si>
+    <t>Voltage Range</t>
+  </si>
+  <si>
+    <t>Current Limit</t>
+  </si>
+  <si>
+    <t>Dual Sweep</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Minimum Range</t>
+  </si>
+  <si>
+    <t>Auto Zero</t>
+  </si>
+  <si>
+    <t>Input Terminals</t>
+  </si>
+  <si>
+    <t>Output Off</t>
+  </si>
+  <si>
+    <t>Sense</t>
+  </si>
+  <si>
+    <t>Common Settings</t>
+  </si>
+  <si>
+    <t>Sweep Points</t>
+  </si>
+  <si>
+    <t>Current Range</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>Source to Measure Delay</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>NPLC</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Measurement Window</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Calculated Points</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Clock</t>
+  </si>
+  <si>
+    <t>Please Enter the Sample Info</t>
+  </si>
+  <si>
+    <t>Please Enter the Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>10 nA</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>2-Wire</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>3.4.2025</t>
+  </si>
+  <si>
+    <t>2:12:3</t>
   </si>
   <si>
     <t>Voltage</t>
@@ -5613,31 +11025,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1804</v>
+        <v>3608</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1832</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1805</v>
+        <v>3609</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1833</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>1806</v>
+        <v>3610</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1834</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>1807</v>
+        <v>3611</v>
       </c>
       <c r="B4" s="0">
         <v>-1</v>
@@ -5645,7 +11057,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>1808</v>
+        <v>3612</v>
       </c>
       <c r="B5" s="0">
         <v>1</v>
@@ -5653,15 +11065,15 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>1809</v>
+        <v>3613</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>1835</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>1810</v>
+        <v>3614</v>
       </c>
       <c r="B7" s="0">
         <v>0.10000000000000001</v>
@@ -5669,69 +11081,69 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>1811</v>
+        <v>3615</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>1836</v>
+        <v>3640</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>1812</v>
+        <v>3616</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1837</v>
+        <v>3641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>1813</v>
+        <v>3617</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>1838</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>1814</v>
+        <v>3618</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1839</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>1815</v>
+        <v>3619</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1840</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>1816</v>
+        <v>3620</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1841</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>1817</v>
+        <v>3621</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1842</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>1818</v>
+        <v>3622</v>
       </c>
       <c r="B15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>1819</v>
+        <v>3623</v>
       </c>
       <c r="B16" s="0">
         <v>21</v>
@@ -5739,23 +11151,23 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>1820</v>
+        <v>3624</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1843</v>
+        <v>3647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>1821</v>
+        <v>3625</v>
       </c>
       <c r="B18" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>1822</v>
+        <v>3626</v>
       </c>
       <c r="B19" s="0">
         <v>0.10000000000000001</v>
@@ -5763,13 +11175,13 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>1823</v>
+        <v>3627</v>
       </c>
       <c r="B20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>1824</v>
+        <v>3628</v>
       </c>
       <c r="B21" s="0">
         <v>1</v>
@@ -5777,7 +11189,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>1825</v>
+        <v>3629</v>
       </c>
       <c r="B22" s="0">
         <v>50</v>
@@ -5785,7 +11197,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>1826</v>
+        <v>3630</v>
       </c>
       <c r="B23" s="0">
         <v>0.02</v>
@@ -5793,7 +11205,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>1827</v>
+        <v>3631</v>
       </c>
       <c r="B24" s="0">
         <v>0.10000000000000001</v>
@@ -5801,32 +11213,32 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>1828</v>
+        <v>3632</v>
       </c>
       <c r="B25" s="0">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>1829</v>
+        <v>3633</v>
       </c>
       <c r="B26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>1830</v>
+        <v>3634</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1844</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>1831</v>
+        <v>3635</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1845</v>
+        <v>3649</v>
       </c>
     </row>
   </sheetData>
@@ -5835,347 +11247,675 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B83"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" customWidth="true"/>
     <col min="2" max="2" width="16.28515625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1846</v>
+        <v>3650</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1847</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.99999547005</v>
+        <v>-0.99999606609000002</v>
       </c>
       <c r="B2" s="0">
-        <v>-2.6587043677999999e-10</v>
+        <v>-2.6390184482000001e-10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.89998817444000001</v>
+        <v>-0.89998787642</v>
       </c>
       <c r="B3" s="0">
-        <v>-2.6457169788000001e-10</v>
+        <v>-2.6293495159000003e-10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.79999941587000001</v>
+        <v>-0.79999983311</v>
       </c>
       <c r="B4" s="0">
-        <v>-2.6336602343e-10</v>
+        <v>-2.6231170013999998e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.69998210669000005</v>
+        <v>-0.69998139143000004</v>
       </c>
       <c r="B5" s="0">
-        <v>-2.6224764027e-10</v>
+        <v>-2.5956251037e-10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.59999996424000002</v>
+        <v>-0.60000205039999999</v>
       </c>
       <c r="B6" s="0">
-        <v>-2.6082069837000002e-10</v>
+        <v>-2.5874141717999999e-10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.49998447298999998</v>
+        <v>-0.49998685718000002</v>
       </c>
       <c r="B7" s="0">
-        <v>-2.5864821396000002e-10</v>
+        <v>-2.5886365274e-10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.40000274777</v>
+        <v>-0.40000417829000001</v>
       </c>
       <c r="B8" s="0">
-        <v>-2.5674920522999999e-10</v>
+        <v>-2.5384896962000002e-10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.29998496175</v>
+        <v>-0.29998603463000001</v>
       </c>
       <c r="B9" s="0">
-        <v>-2.5499038991e-10</v>
+        <v>-2.5273633186000002e-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.19998198748000001</v>
+        <v>-0.1999810487</v>
       </c>
       <c r="B10" s="0">
-        <v>-2.5132693149e-10</v>
+        <v>-2.4935831178000001e-10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.099993683397999994</v>
+        <v>-0.099991761148</v>
       </c>
       <c r="B11" s="0">
-        <v>-2.4609667082000002e-10</v>
+        <v>-2.4231069928e-10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-9.5966242952000001e-08</v>
+        <v>5.1897222875000001e-07</v>
       </c>
       <c r="B12" s="0">
-        <v>-2.2231619323000001e-10</v>
+        <v>-2.1995721910999999e-10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.10000852495</v>
+        <v>0.10001203418</v>
       </c>
       <c r="B13" s="0">
-        <v>9.7347595263000001e-11</v>
+        <v>1.0201201689e-10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.20000474155</v>
+        <v>0.20000548661000001</v>
       </c>
       <c r="B14" s="0">
-        <v>4.5012713557000004e-09</v>
+        <v>4.5401225001999997e-09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.29997989535000003</v>
+        <v>0.29997873306</v>
       </c>
       <c r="B15" s="0">
-        <v>6.7502995194000007e-08</v>
+        <v>6.8085270755000002e-08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.40001475810999998</v>
+        <v>0.40001425147000003</v>
       </c>
       <c r="B16" s="0">
-        <v>1.4544129953999999e-06</v>
+        <v>1.4683612335e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.49998727441000002</v>
+        <v>0.49998778105000002</v>
       </c>
       <c r="B17" s="0">
-        <v>3.8067682907999999e-05</v>
+        <v>3.8354140996999997e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.59999293089000005</v>
+        <v>0.59999334812000005</v>
       </c>
       <c r="B18" s="0">
-        <v>0.00061161059420999995</v>
+        <v>0.00061472563539000005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.69996827840999998</v>
+        <v>0.69996905327000003</v>
       </c>
       <c r="B19" s="0">
-        <v>0.0057677365839000003</v>
+        <v>0.0057888268492999996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.79999560118000002</v>
+        <v>0.79999673367000002</v>
       </c>
       <c r="B20" s="0">
-        <v>0.028198413551000001</v>
+        <v>0.028260285034999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.89999747275999997</v>
+        <v>0.89999848603999999</v>
       </c>
       <c r="B21" s="0">
-        <v>0.074399329722000002</v>
+        <v>0.074511468410000004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.94249451159999997</v>
+        <v>0.94224685430999999</v>
       </c>
       <c r="B22" s="0">
-        <v>0.099996589124000002</v>
+        <v>0.099996626377000006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.89999717473999996</v>
+        <v>0.89999842644000005</v>
       </c>
       <c r="B23" s="0">
-        <v>0.074984706937999995</v>
+        <v>0.075082659721000006</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.79999601841000001</v>
+        <v>0.79999530315</v>
       </c>
       <c r="B24" s="0">
-        <v>0.028802387416000001</v>
+        <v>0.028851458803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.69996678829000003</v>
+        <v>0.69996803999000001</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0059435795993000003</v>
+        <v>0.0059647015296000003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.59999144077</v>
+        <v>0.59999227523999998</v>
       </c>
       <c r="B26" s="0">
-        <v>0.00063707609661000004</v>
+        <v>0.00064031715738000004</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.49998643994000003</v>
+        <v>0.49998760222999999</v>
       </c>
       <c r="B27" s="0">
-        <v>4.0273182094e-05</v>
+        <v>4.0575920138999998e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.40001434087999999</v>
+        <v>0.40001595020000003</v>
       </c>
       <c r="B28" s="0">
-        <v>1.5483831248e-06</v>
+        <v>1.56240867e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.29997828602999999</v>
+        <v>0.29997724295</v>
       </c>
       <c r="B29" s="0">
-        <v>7.1347294294999994e-08</v>
+        <v>7.1945699175999994e-08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.20000359415999999</v>
+        <v>0.20000497997</v>
       </c>
       <c r="B30" s="0">
-        <v>4.7543071701999998e-09</v>
+        <v>4.7934829439e-09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.10000856221</v>
+        <v>0.10000886023</v>
       </c>
       <c r="B31" s="0">
-        <v>1.1386774856e-10</v>
+        <v>1.1885825656999999e-10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>1.4052420738e-07</v>
+        <v>1.0473740986e-08</v>
       </c>
       <c r="B32" s="0">
-        <v>-2.2359175622000001e-10</v>
+        <v>-2.2199579674999999e-10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.099992893636000002</v>
+        <v>-0.099993325770000002</v>
       </c>
       <c r="B33" s="0">
-        <v>-2.4938159870000002e-10</v>
+        <v>-2.4776822260999998e-10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>-0.19998341799</v>
+        <v>-0.19998288154999999</v>
       </c>
       <c r="B34" s="0">
-        <v>-2.5278293346999998e-10</v>
+        <v>-2.5317317687000002e-10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>-0.29998412728000001</v>
+        <v>-0.29998520017000002</v>
       </c>
       <c r="B35" s="0">
-        <v>-2.5583493657000002e-10</v>
+        <v>-2.5408750104e-10</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.40000107884000002</v>
+        <v>-0.40000110864999999</v>
       </c>
       <c r="B36" s="0">
-        <v>-2.5533991587999998e-10</v>
+        <v>-2.5479829358000003e-10</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.49998536706000002</v>
+        <v>-0.49998655915000001</v>
       </c>
       <c r="B37" s="0">
-        <v>-2.5810650839000002e-10</v>
+        <v>-2.5719787410999998e-10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.60000008345</v>
+        <v>-0.59999907016999998</v>
       </c>
       <c r="B38" s="0">
-        <v>-2.6004601250000002e-10</v>
+        <v>-2.5932969661e-10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.69998055696000006</v>
+        <v>-0.69997864962</v>
       </c>
       <c r="B39" s="0">
-        <v>-2.6024965516000002e-10</v>
+        <v>-2.6087879079e-10</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>-0.80000054836000001</v>
+        <v>-0.80000138283</v>
       </c>
       <c r="B40" s="0">
-        <v>-2.6182828128000002e-10</v>
+        <v>-2.6044211232e-10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.89998382330000004</v>
+        <v>-0.89998465776000003</v>
       </c>
       <c r="B41" s="0">
-        <v>-2.6357557802999998e-10</v>
+        <v>-2.6242236162000002e-10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>-0.99999582766999995</v>
+        <v>-0.99999666214000005</v>
       </c>
       <c r="B42" s="0">
-        <v>-2.6380295171e-10</v>
+        <v>-2.6432125932e-10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>-0.99999535084000002</v>
+      </c>
+      <c r="B43" s="0">
+        <v>-2.6336602343e-10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>-0.89998829364999999</v>
+      </c>
+      <c r="B44" s="0">
+        <v>-2.6216628868000002e-10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>-0.80000162124999996</v>
+      </c>
+      <c r="B45" s="0">
+        <v>-2.6088484150999999e-10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>-0.69998157023999996</v>
+      </c>
+      <c r="B46" s="0">
+        <v>-2.5925381286e-10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>-0.59999829531000004</v>
+      </c>
+      <c r="B47" s="0">
+        <v>-2.5701135663999999e-10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>-0.49998453258999997</v>
+      </c>
+      <c r="B48" s="0">
+        <v>-2.5581747831e-10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>-0.40000322460999999</v>
+      </c>
+      <c r="B49" s="0">
+        <v>-2.5381974300000002e-10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>-0.29998630285</v>
+      </c>
+      <c r="B50" s="0">
+        <v>-2.5195587282999998e-10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>-0.19998124242000001</v>
+      </c>
+      <c r="B51" s="0">
+        <v>-2.4927063191000002e-10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>-0.099994800985000007</v>
+      </c>
+      <c r="B52" s="0">
+        <v>-2.4269525278000001e-10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>6.8451845436000001e-07</v>
+      </c>
+      <c r="B53" s="0">
+        <v>-2.1751103696000001e-10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0.10000851005</v>
+      </c>
+      <c r="B54" s="0">
+        <v>1.0995467730999999e-10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="0">
+        <v>0.20000341534999999</v>
+      </c>
+      <c r="B55" s="0">
+        <v>4.6285402177999998e-09</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="0">
+        <v>0.29998195171000003</v>
+      </c>
+      <c r="B56" s="0">
+        <v>6.9382750211999998e-08</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0.40001574158999997</v>
+      </c>
+      <c r="B57" s="0">
+        <v>1.4962012074000001e-06</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0.49998810887</v>
+      </c>
+      <c r="B58" s="0">
+        <v>3.8969381421000001e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0.59999382495999998</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0.00062123726820999996</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0.69996720552000002</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0.0058297319338000003</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0">
+        <v>0.79999595880999996</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0.028374586253999998</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="0">
+        <v>0.89999765158</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0.074711650609999999</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="0">
+        <v>0.94191509485000002</v>
+      </c>
+      <c r="B63" s="0">
+        <v>0.099996544421000005</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="0">
+        <v>0.89999771118000005</v>
+      </c>
+      <c r="B64" s="0">
+        <v>0.075306355953000004</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="0">
+        <v>0.79999601841000001</v>
+      </c>
+      <c r="B65" s="0">
+        <v>0.029009327291999999</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="0">
+        <v>0.69996756314999997</v>
+      </c>
+      <c r="B66" s="0">
+        <v>0.0060158977285</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="0">
+        <v>0.59999245405000001</v>
+      </c>
+      <c r="B67" s="0">
+        <v>0.00064807583111999999</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="0">
+        <v>0.49998724460999999</v>
+      </c>
+      <c r="B68" s="0">
+        <v>4.1286886699000002e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>0.40001410246000002</v>
+      </c>
+      <c r="B69" s="0">
+        <v>1.5945810219000001e-06</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0.29997792839999998</v>
+      </c>
+      <c r="B70" s="0">
+        <v>7.3307944603999997e-08</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0.20000335574</v>
+      </c>
+      <c r="B71" s="0">
+        <v>4.8792974106000001e-09</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0.10000981389999999</v>
+      </c>
+      <c r="B72" s="0">
+        <v>1.2365075630000001e-10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>3.8891084841000003e-06</v>
+      </c>
+      <c r="B73" s="0">
+        <v>-2.2127931432e-10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>-0.099991731346000007</v>
+      </c>
+      <c r="B74" s="0">
+        <v>-2.4746538152000002e-10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>-0.19998274744</v>
+      </c>
+      <c r="B75" s="0">
+        <v>-2.5151311588999998e-10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>-0.29998344182999997</v>
+      </c>
+      <c r="B76" s="0">
+        <v>-2.5455942908999999e-10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>-0.40000131725999999</v>
+      </c>
+      <c r="B77" s="0">
+        <v>-2.5419238935999999e-10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0">
+        <v>-0.49998566507999997</v>
+      </c>
+      <c r="B78" s="0">
+        <v>-2.5737256769999999e-10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="0">
+        <v>-0.60000193119</v>
+      </c>
+      <c r="B79" s="0">
+        <v>-2.5854904329000001e-10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="0">
+        <v>-0.69998240470999995</v>
+      </c>
+      <c r="B80" s="0">
+        <v>-2.5816473959000001e-10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="0">
+        <v>-0.79999881982999999</v>
+      </c>
+      <c r="B81" s="0">
+        <v>-2.5989466135000001e-10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="0">
+        <v>-0.89998662472000002</v>
+      </c>
+      <c r="B82" s="0">
+        <v>-2.6182822577000001e-10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="0">
+        <v>-0.99999487399999998</v>
+      </c>
+      <c r="B83" s="0">
+        <v>-2.6223606619999998e-10</v>
       </c>
     </row>
   </sheetData>
